--- a/template/Router/CiscoIOSチェックシート.xlsx
+++ b/template/Router/CiscoIOSチェックシート.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="frsw3"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="検査対象" sheetId="1" r:id="rId4"/>
@@ -17,17 +17,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1546807308" val="944" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1546807308" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1546807308" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1546807308"/>
+      <pm:revision xmlns:pm="smNativeData" day="1547424448" val="934" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1547424448" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1547424448" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1547424448"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
   <si>
     <t>共通設定</t>
   </si>
@@ -122,10 +122,10 @@
     <t>OS名</t>
   </si>
   <si>
-    <t>OSリリース</t>
-  </si>
-  <si>
-    <t>ネットワーク構成</t>
+    <t>システム</t>
+  </si>
+  <si>
+    <t>シリアル</t>
   </si>
   <si>
     <t>管理LAN</t>
@@ -155,12 +155,21 @@
     <t>_base</t>
   </si>
   <si>
-    <t>OS名</t>
+    <t>S/N</t>
   </si>
   <si>
     <t>_redmine:ネットワーク</t>
   </si>
   <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>ios.rom</t>
+  </si>
+  <si>
+    <t>ios.serial</t>
+  </si>
+  <si>
     <t>検査対象</t>
   </si>
   <si>
@@ -197,15 +206,30 @@
     <t>Y</t>
   </si>
   <si>
-    <t>version</t>
-  </si>
-  <si>
     <t>OSバージョン</t>
   </si>
   <si>
     <t>show version’ コマンドでインベントリを検索</t>
   </si>
   <si>
+    <t>シリアルナンバー</t>
+  </si>
+  <si>
+    <t>ROM情報</t>
+  </si>
+  <si>
+    <t>ios.memory</t>
+  </si>
+  <si>
+    <t>メモリ構成</t>
+  </si>
+  <si>
+    <t>ios.disk</t>
+  </si>
+  <si>
+    <t>ディスク構成</t>
+  </si>
+  <si>
     <t>inventory</t>
   </si>
   <si>
@@ -240,6 +264,30 @@
   </si>
   <si>
     <t>show snmp host’ コマンドでSNMP Trap設定を検索</t>
+  </si>
+  <si>
+    <t>snmp_trap.host</t>
+  </si>
+  <si>
+    <t>SNMP Trap ホスト</t>
+  </si>
+  <si>
+    <t>snmp_trap.port</t>
+  </si>
+  <si>
+    <t>SNMP Trap ポート</t>
+  </si>
+  <si>
+    <t>snmp_trap.community</t>
+  </si>
+  <si>
+    <t>SNMP Trap コミュニティ名</t>
+  </si>
+  <si>
+    <t>snmp_trap.version</t>
+  </si>
+  <si>
+    <t>SNMP Trap バージョン</t>
   </si>
   <si>
     <t>ntp</t>
@@ -295,7 +343,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;¥&quot;_-;\-* #,##0.00\ &quot;¥&quot;_-;_-* &quot;-&quot;??\ &quot;¥&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _¥_-;\-* #,##0.00\ _¥_-;_-* &quot;-&quot;??\ _¥_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
@@ -304,7 +352,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1546807308" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -319,7 +367,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1546807308" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -335,7 +383,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1546807308" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -351,7 +399,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1546807308" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -368,7 +416,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1546807308" fgClr="FFFFCC" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" fgClr="FFFFCC" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -384,7 +432,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1546807308" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -400,7 +448,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1546807308" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -408,8 +456,25 @@
         </ext>
       </extLst>
     </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <b/>
+      <color rgb="FF333333"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" fgClr="333333" ulstyle="none" kern="1">
+            <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default" weight="bold"/>
+            <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
+            <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,7 +487,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1546807308" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -436,7 +501,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1546807308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -447,7 +512,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1546807308" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -461,7 +526,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1546807308" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -472,7 +537,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1546807308" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -483,7 +548,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1546807308" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -494,13 +559,24 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1546807308" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -516,7 +592,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1546807308"/>
+          <pm:border xmlns:pm="smNativeData" id="1547424448"/>
         </ext>
       </extLst>
     </border>
@@ -535,7 +611,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1546807308">
+          <pm:border xmlns:pm="smNativeData" id="1547424448">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFCC"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFCC"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFCC"/>
@@ -559,7 +635,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1546807308">
+          <pm:border xmlns:pm="smNativeData" id="1547424448">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -583,7 +659,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1546807308"/>
+          <pm:border xmlns:pm="smNativeData" id="1547424448"/>
         </ext>
       </extLst>
     </border>
@@ -602,7 +678,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1546807308">
+          <pm:border xmlns:pm="smNativeData" id="1547424448">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -626,7 +702,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1546807308">
+          <pm:border xmlns:pm="smNativeData" id="1547424448">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -649,7 +725,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1546807308">
+          <pm:border xmlns:pm="smNativeData" id="1547424448">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -673,7 +749,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1546807308">
+          <pm:border xmlns:pm="smNativeData" id="1547424448">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -697,7 +773,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1546807308">
+          <pm:border xmlns:pm="smNativeData" id="1547424448">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -720,7 +796,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1546807308"/>
+          <pm:border xmlns:pm="smNativeData" id="1547424448"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1547424448"/>
         </ext>
       </extLst>
     </border>
@@ -733,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,6 +871,18 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -787,10 +894,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1546807308" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1547424448" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1546807308" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1547424448" count="4">
         <pm:color name="色 24" rgb="FFFFCC"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -1424,7 +1531,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1546807308" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1547424448" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1435,16 +1542,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1546807308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1546807308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1546807308" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1546807308" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1546807308" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424448" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1457,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:K15"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="70" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1486,16 +1593,16 @@
       <c r="D3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>33</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -1531,12 +1638,12 @@
       <c r="J4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="16" t="s">
         <v>41</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1546807308" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1548,37 +1655,51 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="17" t="s">
         <v>43</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1546807308" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
     <row r="6" spans="1:11" hidden="1">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="K6" s="15" t="s">
+        <v>25</v>
+      </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1546807308" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1596,7 +1717,7 @@
       <c r="K7" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1546807308" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1614,7 +1735,7 @@
       <c r="K8" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1546807308" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1632,7 +1753,7 @@
       <c r="K9" s="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1546807308" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1650,7 +1771,7 @@
       <c r="K10" s="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1546807308" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1668,7 +1789,7 @@
       <c r="K11" s="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1546807308" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1728,7 +1849,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1546807308" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1547424448" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1737,16 +1858,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1546807308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1546807308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1546807308" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1546807308" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1546807308" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424448" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1774,16 +1895,16 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1791,16 +1912,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1835,7 +1956,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1546807308" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1547424448" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1844,16 +1965,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1546807308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1546807308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1546807308" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1546807308" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1546807308" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424448" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1864,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView view="normal" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1911,140 +2032,268 @@
         <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="14" t="s">
-        <v>58</v>
+      <c r="F5" s="18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>67</v>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="14" t="s">
-        <v>70</v>
+      <c r="F9" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="18" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1546807308" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1547424448" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2053,16 +2302,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1546807308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1546807308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1546807308" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1546807308" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1546807308" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424448" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2088,22 +2337,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2114,16 +2363,16 @@
         <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2131,19 +2380,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3239,7 +3488,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1546807308" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1547424448" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3250,16 +3499,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1546807308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1546807308" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1546807308" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1546807308" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1546807308" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424448" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/template/Router/CiscoIOSチェックシート.xlsx
+++ b/template/Router/CiscoIOSチェックシート.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="frsw3"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="検査対象" sheetId="1" r:id="rId4"/>
@@ -17,17 +17,17 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1547424448" val="934" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1547424448" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1547424448" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1547424448"/>
+      <pm:revision xmlns:pm="smNativeData" day="1547968550" val="944" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1547968550" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1547968550" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1547968550"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
   <si>
     <t>共通設定</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>show ntp’ コマンドでインベントリを検索</t>
+  </si>
+  <si>
+    <t>ip_interface</t>
+  </si>
+  <si>
+    <t>インターフェース構成</t>
+  </si>
+  <si>
+    <t>show ip interface’ コマンドでインターフェースを検索</t>
   </si>
   <si>
     <t>RouterRTX</t>
@@ -352,7 +361,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547968550" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -367,7 +376,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547968550" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -383,7 +392,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547968550" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -399,7 +408,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547968550" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -416,7 +425,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" fgClr="FFFFCC" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547968550" fgClr="FFFFCC" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -432,7 +441,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547968550" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -448,7 +457,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547968550" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -465,7 +474,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1547424448" fgClr="333333" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1547968550" fgClr="333333" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -474,7 +483,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,7 +496,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1547968550" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -501,7 +510,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1547968550" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -512,7 +521,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1547968550" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -526,7 +535,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1547968550" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -537,7 +546,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1547968550" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -548,7 +557,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1547968550" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -559,24 +568,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1547424448" type="1" fgLvl="100" fgClr="00D9D9D9" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1547968550" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -592,7 +590,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1547424448"/>
+          <pm:border xmlns:pm="smNativeData" id="1547968550"/>
         </ext>
       </extLst>
     </border>
@@ -611,7 +609,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1547424448">
+          <pm:border xmlns:pm="smNativeData" id="1547968550">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFCC"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFCC"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="FFFFCC"/>
@@ -635,7 +633,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1547424448">
+          <pm:border xmlns:pm="smNativeData" id="1547968550">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -659,7 +657,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1547424448"/>
+          <pm:border xmlns:pm="smNativeData" id="1547968550"/>
         </ext>
       </extLst>
     </border>
@@ -678,7 +676,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1547424448">
+          <pm:border xmlns:pm="smNativeData" id="1547968550">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -702,7 +700,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1547424448">
+          <pm:border xmlns:pm="smNativeData" id="1547968550">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -725,7 +723,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1547424448">
+          <pm:border xmlns:pm="smNativeData" id="1547968550">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -749,7 +747,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1547424448">
+          <pm:border xmlns:pm="smNativeData" id="1547968550">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -773,7 +771,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1547424448">
+          <pm:border xmlns:pm="smNativeData" id="1547968550">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -796,26 +794,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1547424448"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1547424448"/>
+          <pm:border xmlns:pm="smNativeData" id="1547968550"/>
         </ext>
       </extLst>
     </border>
@@ -828,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,9 +850,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -894,10 +870,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1547424448" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1547968550" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1547424448" count="4">
+      <pm:colors xmlns:pm="smNativeData" id="1547968550" count="4">
         <pm:color name="色 24" rgb="FFFFCC"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -1531,7 +1507,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1547424448" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1547968550" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1542,16 +1518,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1547968550" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1547968550" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547968550" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547968550" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424448" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547968550" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1564,7 +1540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="70" workbookViewId="0">
+    <sheetView view="normal" zoomScale="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1593,16 +1569,16 @@
       <c r="D3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="I3" s="12" t="s">
@@ -1638,12 +1614,12 @@
       <c r="J4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>41</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547968550" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1666,12 +1642,12 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="16" t="s">
         <v>43</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547968550" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1694,12 +1670,12 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>25</v>
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547968550" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1717,7 +1693,7 @@
       <c r="K7" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547968550" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1735,7 +1711,7 @@
       <c r="K8" s="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547968550" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1753,7 +1729,7 @@
       <c r="K9" s="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547968550" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1771,7 +1747,7 @@
       <c r="K10" s="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547968550" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1789,7 +1765,7 @@
       <c r="K11" s="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1547424448" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1547968550" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -1849,7 +1825,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1547424448" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1547968550" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1858,16 +1834,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1547968550" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1547968550" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547968550" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547968550" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424448" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547968550" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1956,7 +1932,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1547424448" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1547968550" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1965,16 +1941,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1547968550" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1547968550" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547968550" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547968550" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424448" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547968550" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -1985,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -2061,7 +2037,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2145,7 +2121,7 @@
       <c r="E10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2165,7 +2141,7 @@
       <c r="E11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2185,7 +2161,7 @@
       <c r="E12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2203,7 +2179,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2285,15 +2261,35 @@
         <v>25</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1547424448" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1547968550" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2302,16 +2298,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1547968550" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1547968550" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547968550" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547968550" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424448" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547968550" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -2340,19 +2336,19 @@
         <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2363,16 +2359,16 @@
         <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2380,19 +2376,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3488,7 +3484,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1547424448" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1547968550" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3499,16 +3495,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1547424448" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1547424448" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1547968550" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1547968550" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547968550" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1547968550" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547424448" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1547968550" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/template/Router/CiscoIOSチェックシート.xlsx
+++ b/template/Router/CiscoIOSチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="164">
   <si>
     <t>共通設定</t>
   </si>
@@ -586,6 +586,42 @@
   </si>
   <si>
     <t>* 検査対象ネットワーク機器の Cisco IOS に接続し、HW／OS 情報を収集します。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ファームウェア</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ストレージ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ハードウェア</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ARP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>SNMP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>NTP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1001,7 +1037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,9 +1089,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1104,9 +1137,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1117,6 +1147,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1441,974 +1486,974 @@
   </sheetPr>
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="19" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9" style="19"/>
-    <col min="7" max="7" width="13.75" style="19" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="19" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="19" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="19" customWidth="1"/>
-    <col min="12" max="12" width="9" style="19" customWidth="1"/>
-    <col min="13" max="16" width="9.5" style="19" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="19" customWidth="1"/>
-    <col min="19" max="19" width="9.25" style="19" customWidth="1"/>
-    <col min="20" max="20" width="11.25" style="19" customWidth="1"/>
-    <col min="21" max="1030" width="8.75" style="19" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="19"/>
+    <col min="1" max="2" width="3.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="18" customWidth="1"/>
+    <col min="5" max="5" width="13" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9" style="18"/>
+    <col min="7" max="7" width="13.75" style="18" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="18" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="18" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9" style="18" customWidth="1"/>
+    <col min="13" max="16" width="9.5" style="18" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="18" customWidth="1"/>
+    <col min="18" max="18" width="10.75" style="18" customWidth="1"/>
+    <col min="19" max="19" width="9.25" style="18" customWidth="1"/>
+    <col min="20" max="20" width="11.25" style="18" customWidth="1"/>
+    <col min="21" max="1030" width="8.75" style="18" customWidth="1"/>
+    <col min="1031" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="20" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="18"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="17"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="23" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="18"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="17"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34" t="s">
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="K34" s="34"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="33" t="s">
+      <c r="I35" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="33" t="s">
+      <c r="J35" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K35" s="33" t="s">
+      <c r="K35" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="33" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="33" t="s">
+      <c r="I36" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="33" t="s">
+      <c r="J36" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="K36" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="4">
         <v>1</v>
       </c>
@@ -2431,19 +2476,19 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="4">
         <v>2</v>
       </c>
@@ -2456,19 +2501,19 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="4">
         <v>3</v>
       </c>
@@ -2481,1046 +2526,1046 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="35" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="18"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="17"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="20" t="s">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="18"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="17"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="18"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="17"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="29" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="18"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="17"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="29" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="18"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="17"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="29" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="18"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="17"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="36" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="18"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="17"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="35" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="18"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="27"/>
+      <c r="U61" s="17"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="18"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="18"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18"/>
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="26" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="27"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="28"/>
-      <c r="U67" s="18"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="26"/>
+      <c r="T67" s="27"/>
+      <c r="U67" s="17"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="18"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18" t="s">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="18"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="18"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="18"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="26" t="s">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="27"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="27"/>
-      <c r="T72" s="28"/>
-      <c r="U72" s="18"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="26"/>
+      <c r="R72" s="26"/>
+      <c r="S72" s="26"/>
+      <c r="T72" s="27"/>
+      <c r="U72" s="17"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="18"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="26" t="s">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="27"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="27"/>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="27"/>
-      <c r="R77" s="27"/>
-      <c r="S77" s="27"/>
-      <c r="T77" s="28"/>
-      <c r="U77" s="18"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="27"/>
+      <c r="U77" s="17"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
-      <c r="U78" s="18"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="17"/>
+      <c r="U78" s="17"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18" t="s">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="35" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="27"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="27"/>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
-      <c r="R80" s="27"/>
-      <c r="S80" s="27"/>
-      <c r="T80" s="28"/>
-      <c r="U80" s="18"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26"/>
+      <c r="R80" s="26"/>
+      <c r="S80" s="26"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="17"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="18" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C86" s="19" t="s">
+      <c r="C86" s="18" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="18" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3563,19 +3608,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="17"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -4301,334 +4346,385 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="6.375" customWidth="1"/>
-    <col min="6" max="6" width="54.875" customWidth="1"/>
-    <col min="7" max="10" width="13.375" customWidth="1"/>
-    <col min="11" max="1025" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="54.875" customWidth="1"/>
+    <col min="8" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="1026" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>53</v>
+      <c r="B4" s="39" t="s">
+        <v>155</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
+      <c r="B5" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
+      <c r="B6" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
+      <c r="B7" s="40" t="s">
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>63</v>
+      <c r="B8" s="40" t="s">
+        <v>157</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>65</v>
+      <c r="B9" s="40" t="s">
+        <v>158</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>67</v>
+      <c r="B10" s="40" t="s">
+        <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>70</v>
+      <c r="B11" s="40" t="s">
+        <v>160</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>73</v>
+      <c r="B12" s="40" t="s">
+        <v>160</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>76</v>
+      <c r="B13" s="40" t="s">
+        <v>161</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>79</v>
+      <c r="B14" s="40" t="s">
+        <v>161</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>81</v>
+      <c r="B15" s="40" t="s">
+        <v>161</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>83</v>
+      <c r="B16" s="40" t="s">
+        <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>85</v>
+      <c r="B17" s="40" t="s">
+        <v>161</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>87</v>
+      <c r="B18" s="40" t="s">
+        <v>162</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>90</v>
+      <c r="B19" s="40" t="s">
+        <v>163</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="16" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1547968550" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">

--- a/template/Router/CiscoIOSチェックシート.xlsx
+++ b/template/Router/CiscoIOSチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -1149,12 +1149,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,6 +1156,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2344,19 +2344,19 @@
     <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="32"/>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37" t="s">
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="K34" s="37"/>
+      <c r="K34" s="40"/>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
@@ -3588,9 +3588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection sqref="A1:J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3608,19 +3606,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="38"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -4348,8 +4346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4357,16 +4355,15 @@
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="4" width="30.375" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="54.875" customWidth="1"/>
-    <col min="8" max="11" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="7.875" customWidth="1"/>
+    <col min="6" max="6" width="54.875" customWidth="1"/>
+    <col min="7" max="11" width="13.375" customWidth="1"/>
     <col min="12" max="1026" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="41"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -4375,7 +4372,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
-      <c r="B2" s="41"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -4384,7 +4381,7 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="41"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -4395,7 +4392,7 @@
       <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>155</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -4405,20 +4402,20 @@
         <v>53</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4427,17 +4424,17 @@
       <c r="D5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4446,17 +4443,17 @@
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="38" t="s">
         <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4465,17 +4462,17 @@
       <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="38" t="s">
         <v>157</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -4484,17 +4481,17 @@
       <c r="D8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="38" t="s">
         <v>158</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4503,19 +4500,19 @@
       <c r="D9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4525,20 +4522,20 @@
         <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>160</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4548,20 +4545,20 @@
         <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="38" t="s">
         <v>160</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4571,20 +4568,20 @@
         <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="38" t="s">
         <v>161</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4593,17 +4590,17 @@
       <c r="D13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="16" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="38" t="s">
         <v>161</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4612,17 +4609,17 @@
       <c r="D14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="38" t="s">
         <v>161</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4631,17 +4628,17 @@
       <c r="D15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="38" t="s">
         <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4650,17 +4647,17 @@
       <c r="D16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="38" t="s">
         <v>161</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4669,19 +4666,19 @@
       <c r="D17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="38" t="s">
         <v>162</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4690,19 +4687,19 @@
       <c r="D18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="38" t="s">
         <v>163</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4712,13 +4709,13 @@
         <v>90</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/template/Router/CiscoIOSチェックシート.xlsx
+++ b/template/Router/CiscoIOSチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -1486,9 +1486,7 @@
   </sheetPr>
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1508,8 +1506,8 @@
     <col min="18" max="18" width="10.75" style="18" customWidth="1"/>
     <col min="19" max="19" width="9.25" style="18" customWidth="1"/>
     <col min="20" max="20" width="11.25" style="18" customWidth="1"/>
-    <col min="21" max="1030" width="8.75" style="18" customWidth="1"/>
-    <col min="1031" max="16384" width="9" style="18"/>
+    <col min="21" max="21" width="8.75" style="18" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
@@ -3600,8 +3598,6 @@
     <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="10" width="15.875" customWidth="1"/>
-    <col min="11" max="1019" width="8.75" customWidth="1"/>
-    <col min="1020" max="1021" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -4010,7 +4006,6 @@
     <col min="9" max="9" width="15.875" customWidth="1"/>
     <col min="10" max="10" width="28.625" customWidth="1"/>
     <col min="11" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="1022" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -4346,9 +4341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4357,8 +4350,7 @@
     <col min="3" max="4" width="30.375" customWidth="1"/>
     <col min="5" max="5" width="7.875" customWidth="1"/>
     <col min="6" max="6" width="54.875" customWidth="1"/>
-    <col min="7" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="1026" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4737,15 +4729,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="1009" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
